--- a/爬虫/北京园林局/行政处罚.xlsx
+++ b/爬虫/北京园林局/行政处罚.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="13896" yWindow="1116" windowWidth="17280" windowHeight="8964" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -329,15 +329,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D38"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="E38" sqref="A1:E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
     <col width="29" customWidth="1" min="2" max="2"/>
+    <col width="35" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -368,812 +369,416 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>3172</t>
+          <t>3170</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>北京沃野园林绿化工程有限公司</t>
+          <t>北京中科灵瑞生物技术股份有限公司</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>京绿种许〔2020〕13号</t>
+          <t>京绿动植许〔2020〕57号</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2020-05-28</t>
+          <t>2020-05-25</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3172</t>
+          <t>3174</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>北京沃野园林绿化工程有限公司</t>
+          <t>北京馨琪园林绿化有限公司</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>京绿种许〔2020〕13号</t>
+          <t>京绿种许〔2020〕12号</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2020-05-28</t>
+          <t>2020-05-25</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3172</t>
+          <t>3101</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>北京沃野园林绿化工程有限公司</t>
+          <t>北京特蓝普生态科技有限公司</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>京绿种许〔2020〕13号</t>
+          <t>京绿种许〔2020〕11号</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2020-05-28</t>
+          <t>2020-05-19</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3172</t>
+          <t>3168</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>北京沃野园林绿化工程有限公司</t>
+          <t>北京中科灵瑞生物技术股份有限公司</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>京绿种许〔2020〕13号</t>
+          <t>京绿动植许〔2020〕55号</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2020-05-28</t>
+          <t>2020-05-18</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3172</t>
+          <t>3169</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>北京沃野园林绿化工程有限公司</t>
+          <t>北京昭衍新药研究中心股份有限公司</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>京绿种许〔2020〕13号</t>
+          <t>京绿动植许〔2020〕56号</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2020-05-28</t>
+          <t>2020-05-18</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3172</t>
+          <t>3089</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>北京沃野园林绿化工程有限公司</t>
+          <t>唯特蓝图（北京）农业科技有限公司</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>京绿种许〔2020〕13号</t>
+          <t>京绿种许〔2020〕10号</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2020-05-28</t>
+          <t>2020-05-13</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3172</t>
+          <t>3088</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>北京沃野园林绿化工程有限公司</t>
+          <t>北京卓尔生态园林有限公司</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>京绿种许〔2020〕13号</t>
+          <t>京绿种许〔2020〕9号</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2020-05-28</t>
+          <t>2020-05-09</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3172</t>
+          <t>3166</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>北京沃野园林绿化工程有限公司</t>
+          <t>北京仟草中药饮片有限公司</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>京绿种许〔2020〕13号</t>
+          <t>京绿动植许〔2020〕52号</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2020-05-28</t>
+          <t>2020-05-09</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3172</t>
+          <t>3167</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>北京沃野园林绿化工程有限公司</t>
+          <t>北京仟草中药饮片有限公司</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>京绿种许〔2020〕13号</t>
+          <t>京绿动植许〔2020〕53号</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2020-05-28</t>
+          <t>2020-05-09</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3172</t>
+          <t>3058</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>北京沃野园林绿化工程有限公司</t>
+          <t>北京吉垚绿洲园林绿化有限公司</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>京绿种许〔2020〕13号</t>
+          <t>京绿种许〔2020〕6号</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2020-05-28</t>
+          <t>2020-04-30</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3172</t>
+          <t>3059</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>北京沃野园林绿化工程有限公司</t>
+          <t>北京新地园林绿化有限公司</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>京绿种许〔2020〕13号</t>
+          <t>京绿种许〔2020〕7号</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2020-05-28</t>
+          <t>2020-04-30</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3172</t>
+          <t>3060</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>北京沃野园林绿化工程有限公司</t>
+          <t>北京众禾园林绿化有限公司</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>京绿种许〔2020〕13号</t>
+          <t>京绿种许〔2020〕8号</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2020-05-28</t>
+          <t>2020-04-30</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3172</t>
+          <t>3080</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>北京沃野园林绿化工程有限公司</t>
+          <t>北京同仁堂科技发展股份有限公司</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>京绿种许〔2020〕13号</t>
+          <t>京绿动植许〔2020〕47号</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2020-05-28</t>
+          <t>2020-04-04</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>3172</t>
+          <t>3081</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>北京沃野园林绿化工程有限公司</t>
+          <t>北京同仁堂股份有限公司</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>京绿种许〔2020〕13号</t>
+          <t>京绿动植许〔2020〕48号</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2020-05-28</t>
+          <t>2020-04-26</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3172</t>
+          <t>3082</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>北京沃野园林绿化工程有限公司</t>
+          <t>北京同仁堂股份有限公司</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>京绿种许〔2020〕13号</t>
+          <t>京绿动植许〔2020〕49号</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2020-05-28</t>
+          <t>2020-04-26</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>3172</t>
+          <t>3083</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>北京沃野园林绿化工程有限公司</t>
+          <t>北京同仁堂股份有限公司</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>京绿种许〔2020〕13号</t>
+          <t>京绿动植许〔2020〕50号</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2020-05-28</t>
+          <t>2020-04-26</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3172</t>
+          <t>3040</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>北京沃野园林绿化工程有限公司</t>
+          <t>北京新城基业投资发展有限公司</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>京绿种许〔2020〕13号</t>
+          <t>永占2020A0005</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2020-05-28</t>
+          <t>2020-04-28</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3172</t>
+          <t>3041</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>北京沃野园林绿化工程有限公司</t>
+          <t>中国农业科学院农业信息研究所</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>京绿种许〔2020〕13号</t>
+          <t>[2020]0047号</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2020-05-28</t>
+          <t>2020-04-28</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3170</t>
+          <t>3042</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>北京中科灵瑞生物技术股份有限公司</t>
+          <t>中国农业科学院农业信息研究所</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>京绿动植许〔2020〕57号</t>
+          <t>【2020】0048号</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
-        <is>
-          <t>2020-05-25</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>3174</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>北京馨琪园林绿化有限公司</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>京绿种许〔2020〕12号</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2020-05-25</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>3101</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>北京特蓝普生态科技有限公司</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>京绿种许〔2020〕11号</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>2020-05-19</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>3168</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>北京中科灵瑞生物技术股份有限公司</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>京绿动植许〔2020〕55号</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>2020-05-18</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>3169</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>北京昭衍新药研究中心股份有限公司</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>京绿动植许〔2020〕56号</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>2020-05-18</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>3089</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>唯特蓝图（北京）农业科技有限公司</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>京绿种许〔2020〕10号</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>2020-05-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>3088</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>北京卓尔生态园林有限公司</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>京绿种许〔2020〕9号</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>2020-05-09</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>3166</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>北京仟草中药饮片有限公司</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>京绿动植许〔2020〕52号</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>2020-05-09</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>3167</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>北京仟草中药饮片有限公司</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>京绿动植许〔2020〕53号</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>2020-05-09</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>3058</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>北京吉垚绿洲园林绿化有限公司</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>京绿种许〔2020〕6号</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>2020-04-30</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>3059</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>北京新地园林绿化有限公司</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>京绿种许〔2020〕7号</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>2020-04-30</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>3060</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>北京众禾园林绿化有限公司</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>京绿种许〔2020〕8号</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>2020-04-30</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>3080</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>北京同仁堂科技发展股份有限公司</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>京绿动植许〔2020〕47号</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>2020-04-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>3081</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>北京同仁堂股份有限公司</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>京绿动植许〔2020〕48号</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>2020-04-26</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>3082</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>北京同仁堂股份有限公司</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>京绿动植许〔2020〕49号</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>2020-04-26</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>3083</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>北京同仁堂股份有限公司</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>京绿动植许〔2020〕50号</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>2020-04-26</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>3040</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>北京新城基业投资发展有限公司</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>永占2020A0005</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>2020-04-28</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>3041</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>中国农业科学院农业信息研究所</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>[2020]0047号</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>2020-04-28</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>3042</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>中国农业科学院农业信息研究所</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>【2020】0048号</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
         <is>
           <t>2020-04-28</t>
         </is>

--- a/爬虫/北京园林局/行政处罚.xlsx
+++ b/爬虫/北京园林局/行政处罚.xlsx
@@ -329,7 +329,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
       <selection activeCell="E38" sqref="A1:E38"/>
@@ -784,6 +784,446 @@
         </is>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>3043</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>北京市轨道交通建设管理有限公司</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>[2020]0049号</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>3044</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>北京公共交通控股（集团）有限公司</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>临占2020A0024</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>3045</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>北京市轨道交通建设管理有限公司</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>临占2020A0025</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>3046</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>北京市轨道交通建设管理一线公司</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>临占2020A0027</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>3047</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>北京市轨道交通建设管理有限公司</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>临占2020A0026</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>3048</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>北京市轨道交通建设管理有限公司</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>临占2020A0028</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>3049</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>北京市轨道交通建设管理有限公司</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>临占2020A0030</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>3050</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>北京市轨道交通建设管理有限公司</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>临占2020A0031</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>3051</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>北京市轨道交通建设管理有限公司</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>临占2020A0029</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>3052</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>北京市轨道交通建设管理有限公司</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>临占2020A0032</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>3053</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>北京首钢二通建设投资有限公司</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>[2020]0043号</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>3054</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>北京市燃气集团有限责任公司</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>[2020]0044号</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>3055</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>北京交通大学</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>【2020】0045号</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2020-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>3056</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>北京首通建设工程有限公司</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>【2020】0046号</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2020-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>3057</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>北京市燃气集团有限责任公司</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>临占2020A0023</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>3039</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>北京辉盛生态园林绿化工程有限公司</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>京绿种许〔2020〕5号</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2020-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>3036</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>京沈铁路客运专线京冀有限公司</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>（2020）京绿移字第004-012号</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>3038</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>京沈铁路客运专线京冀有限公司</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>市局采字【2020】0420001-006号</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>3032</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>北京青云祥合建设发展有限公司</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>京绿资林地许【2020】038号</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>3033</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>北京青云祥合建设发展有限公司</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>京绿资林地许【2020】039号</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
